--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\2022\cs4471\group project\report\4471---Therapy-Support-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98E4247-2F1E-452A-A83C-85E14532A7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C35DF47-5D17-4D4A-B95E-0927026CECFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10875" yWindow="6150" windowWidth="21600" windowHeight="11385" xr2:uid="{798C9B94-E1B8-41E8-BE2E-9693F3EABDF5}"/>
   </bookViews>
@@ -538,12 +538,6 @@
     <t>Add data into the fields.</t>
   </si>
   <si>
-    <t>1. Navigate to the symptom 
-page. 
-2. Type in the test data. 
-3. Click on add symptom entry.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The system should accept 
 this message. The database should enter the message 
 into the system. </t>
@@ -594,13 +588,6 @@
   </si>
   <si>
     <t xml:space="preserve">Delete symptom data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Navigate to the symptom page. 
-2. Add the test case from test data. 
-3. Click on delete. 
-4. Click on read to get the updated list view. 
-</t>
   </si>
   <si>
     <t xml:space="preserve">The entry should be deleted from the database and listview. </t>
@@ -775,6 +762,19 @@
   <si>
     <t>Add data to the fields on the
 medication page.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the symptom 
+page. 
+2. Type in the test data except for date. Please click on the box and then choose the date. 
+3. Click on add symptom entry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to the symptom page. 
+2. Add the test case from test data. Please click on date to find the appropriate entry. 
+3. Click on delete. 
+4. Click on read to get the updated list view. 
+</t>
   </si>
 </sst>
 </file>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63CD886-6AAD-4040-9B3A-698B27EF1911}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E31:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -1234,7 +1234,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>51</v>
@@ -1249,7 +1249,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.25">
@@ -1263,10 +1263,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F4" t="s">
         <v>46</v>
@@ -1278,7 +1278,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1292,10 +1292,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>19</v>
@@ -1307,7 +1307,7 @@
         <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1315,13 +1315,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
@@ -1336,7 +1336,7 @@
         <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -1347,10 +1347,10 @@
         <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>29</v>
@@ -1365,7 +1365,7 @@
         <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1376,13 +1376,13 @@
         <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
         <v>46</v>
@@ -1394,7 +1394,7 @@
         <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1408,7 +1408,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>39</v>
@@ -1423,7 +1423,7 @@
         <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>45</v>
@@ -1452,7 +1452,7 @@
         <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -1466,13 +1466,13 @@
         <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>53</v>
@@ -1481,7 +1481,7 @@
         <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>64</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>58</v>
@@ -1510,7 +1510,7 @@
         <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -1524,7 +1524,7 @@
         <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>74</v>
@@ -1539,7 +1539,7 @@
         <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -1553,13 +1553,13 @@
         <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>75</v>
@@ -1568,7 +1568,7 @@
         <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="300" x14ac:dyDescent="0.25">
@@ -1582,22 +1582,22 @@
         <v>78</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1611,7 +1611,7 @@
         <v>82</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>83</v>
@@ -1626,7 +1626,7 @@
         <v>86</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1637,10 +1637,10 @@
         <v>87</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>93</v>
@@ -1655,7 +1655,7 @@
         <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1669,7 +1669,7 @@
         <v>92</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>94</v>
@@ -1684,7 +1684,7 @@
         <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1698,7 +1698,7 @@
         <v>105</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>106</v>
@@ -1713,7 +1713,7 @@
         <v>109</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1721,19 +1721,19 @@
         <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>110</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>112</v>
@@ -1742,7 +1742,7 @@
         <v>113</v>
       </c>
       <c r="I20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1756,7 +1756,7 @@
         <v>115</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>116</v>
@@ -1771,7 +1771,7 @@
         <v>118</v>
       </c>
       <c r="I21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -1785,13 +1785,13 @@
         <v>120</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>121</v>
@@ -1800,7 +1800,7 @@
         <v>122</v>
       </c>
       <c r="I22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
         <v>124</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>125</v>
@@ -1829,7 +1829,7 @@
         <v>129</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1843,7 +1843,7 @@
         <v>132</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>133</v>
@@ -1858,7 +1858,7 @@
         <v>136</v>
       </c>
       <c r="I24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -1872,22 +1872,22 @@
         <v>142</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="I25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1895,28 +1895,28 @@
         <v>138</v>
       </c>
       <c r="B26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="G26" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>66</v>
       </c>
       <c r="I26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -1924,57 +1924,57 @@
         <v>139</v>
       </c>
       <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>59</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>140</v>
       </c>
       <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="I28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
